--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\5AHWII\swp\ProjektCCC\Ferienspass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\5AHWII\swp\ProjektCCC\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>Anmelden bei Githubprojekt+Test von Push-Pull</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>12.11.2019</t>
+  </si>
+  <si>
+    <t>Besprechung mit Gemeinde</t>
+  </si>
+  <si>
+    <t>19.11.2019</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
   </si>
 </sst>
 </file>
@@ -275,6 +290,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,30 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,12 +704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -731,35 +746,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -791,32 +806,52 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="26">
         <f t="shared" ref="F8:F37" si="0">D8-C8</f>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G9" s="11"/>
       <c r="J9" s="3"/>
@@ -1161,109 +1196,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
-        <v>6.9444444444444531E-2</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1286,6 +1321,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="C5:D5"/>
@@ -1295,15 +1339,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>Sprint Planning (Product-Backlog)</t>
+  </si>
+  <si>
+    <t>20.11.2019</t>
   </si>
 </sst>
 </file>
@@ -290,6 +296,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -313,18 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -704,12 +710,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -746,35 +752,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -826,12 +832,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -857,14 +863,24 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G10" s="11"/>
       <c r="J10" s="3"/>
@@ -1196,109 +1212,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
-        <v>0.52083333333333326</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1321,6 +1337,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
@@ -1330,15 +1355,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\5AHWII\swp\ProjektCCC\Ferienspass\Taetigkeitsprotokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E99071-FEF3-437B-B362-E3819577BAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Pause">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -99,12 +100,18 @@
   </si>
   <si>
     <t>20.11.2019</t>
+  </si>
+  <si>
+    <t>Loginformular anlegen + pw abgleichen</t>
+  </si>
+  <si>
+    <t>26.11.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-407]ddd"/>
@@ -296,6 +303,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,30 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,6 +490,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -518,6 +542,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,12 +751,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -752,35 +793,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -832,12 +873,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -886,14 +927,24 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -1212,109 +1263,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
-        <v>0.59027777777777779</v>
+        <v>0.8159722222222221</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1337,6 +1388,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="C5:D5"/>
@@ -1346,15 +1406,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E99071-FEF3-437B-B362-E3819577BAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A73954C-3693-453B-A152-2966DB0AF1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>26.11.2019</t>
+  </si>
+  <si>
+    <t>03.12.2019</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -949,14 +952,22 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -1272,7 +1283,7 @@
       <c r="E38" s="29"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
-        <v>0.8159722222222221</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="G38" s="8"/>
     </row>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A73954C-3693-453B-A152-2966DB0AF1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED17ED-6B81-4AE0-AE6A-B534F84F1E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="705" windowWidth="14685" windowHeight="10095" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>03.12.2019</t>
+  </si>
+  <si>
+    <t>Pw vergessen + zurücksetzten</t>
   </si>
 </sst>
 </file>
@@ -306,6 +309,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -329,18 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,12 +757,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -796,35 +799,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -876,12 +879,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -964,7 +967,9 @@
       <c r="D12" s="25">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="26">
         <f t="shared" si="0"/>
         <v>0.22569444444444436</v>
@@ -1274,13 +1279,13 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
         <v>1.0416666666666665</v>
@@ -1288,95 +1293,95 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1399,6 +1404,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
@@ -1408,15 +1422,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED17ED-6B81-4AE0-AE6A-B534F84F1E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40253E12-E44E-4608-8CAB-463A64FCC4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="705" windowWidth="14685" windowHeight="10095" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Pw vergessen + zurücksetzten</t>
+  </si>
+  <si>
+    <t>10.12.2019</t>
+  </si>
+  <si>
+    <t>Sprint planning + Not allowed people anzeigen</t>
+  </si>
+  <si>
+    <t>04.12.2019</t>
+  </si>
+  <si>
+    <t>Pw vergessen email senden</t>
   </si>
 </sst>
 </file>
@@ -309,6 +321,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,30 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,12 +769,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -799,35 +811,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -875,16 +887,16 @@
         <v>18</v>
       </c>
       <c r="F8" s="26">
-        <f t="shared" ref="F8:F37" si="0">D8-C8</f>
+        <f t="shared" ref="F8:F38" si="0">D8-C8</f>
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -977,26 +989,46 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -1017,7 +1049,7 @@
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1025,11 +1057,11 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1037,11 +1069,11 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1073,11 +1105,11 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1230,9 +1262,7 @@
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
-        <v>11</v>
-      </c>
+      <c r="B34" s="27"/>
       <c r="C34" s="25"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -1244,7 +1274,9 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="C35" s="25"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -1278,120 +1310,123 @@
       </c>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="22">
-        <f>SUM(F7:F37)</f>
-        <v>1.0416666666666665</v>
-      </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="22">
+        <f>SUM(F7:F38)</f>
+        <v>1.3368055555555556</v>
+      </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
@@ -1402,10 +1437,28 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="A1:D1"/>
@@ -1413,15 +1466,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40253E12-E44E-4608-8CAB-463A64FCC4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68178E-297B-48EF-9584-561C9180967B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Pw vergessen email senden</t>
+  </si>
+  <si>
+    <t>11.12.2019</t>
+  </si>
+  <si>
+    <t>Not allowed people email senden</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>19.12.2019</t>
+  </si>
+  <si>
+    <t>17.12.2019</t>
+  </si>
+  <si>
+    <t>Resetlink-Pfusch beheben</t>
+  </si>
+  <si>
+    <t>Login optimieren</t>
   </si>
 </sst>
 </file>
@@ -321,6 +342,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -344,18 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +777,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,12 +790,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -811,35 +832,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -891,12 +912,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -1033,38 +1054,68 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -1323,109 +1374,109 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="22">
         <f>SUM(F7:F38)</f>
-        <v>1.3368055555555556</v>
+        <v>1.7048611111111112</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1448,6 +1499,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A49:F49"/>
@@ -1457,15 +1517,6 @@
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68178E-297B-48EF-9584-561C9180967B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8713D5-87FD-4BE5-9B3D-DA8E3B080E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -141,10 +141,16 @@
     <t>17.12.2019</t>
   </si>
   <si>
-    <t>Resetlink-Pfusch beheben</t>
-  </si>
-  <si>
     <t>Login optimieren</t>
+  </si>
+  <si>
+    <t>Resetlink-Fehler beheben</t>
+  </si>
+  <si>
+    <t>07.01.2020</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -342,6 +348,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,30 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,12 +796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -832,35 +838,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -912,12 +918,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -1089,7 +1095,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
@@ -1111,7 +1117,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
@@ -1120,14 +1126,24 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -1169,7 +1185,7 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="25"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -1181,7 +1197,7 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -1193,7 +1209,7 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -1205,7 +1221,7 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="25"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -1217,7 +1233,7 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -1229,7 +1245,7 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="25"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -1241,7 +1257,7 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -1253,7 +1269,7 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="25"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -1265,7 +1281,7 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="25"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -1277,7 +1293,7 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -1289,7 +1305,7 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -1301,7 +1317,7 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -1313,7 +1329,7 @@
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -1325,7 +1341,7 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="25"/>
@@ -1339,7 +1355,7 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -1351,7 +1367,7 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -1363,7 +1379,7 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -1374,109 +1390,109 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="22">
         <f>SUM(F7:F38)</f>
-        <v>1.7048611111111112</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1499,6 +1515,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="C5:D5"/>
@@ -1508,15 +1533,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8713D5-87FD-4BE5-9B3D-DA8E3B080E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6739B5-9BA4-4915-BF4E-27F6908E34D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <t>07.01.2020</t>
   </si>
   <si>
-    <t>Testing</t>
+    <t>Testing "Erlaubte Orte auflisten, …"; NAPeople fehler beheben</t>
   </si>
 </sst>
 </file>
@@ -348,6 +348,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -371,18 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,12 +796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -838,35 +838,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -918,12 +918,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -1390,13 +1390,13 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="22">
         <f>SUM(F7:F38)</f>
         <v>1.9305555555555556</v>
@@ -1404,95 +1404,95 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,6 +1515,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A49:F49"/>
@@ -1524,15 +1533,6 @@
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6739B5-9BA4-4915-BF4E-27F6908E34D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32EA2BB-707E-45C2-B5D3-191F8CAB4970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <t>07.01.2020</t>
   </si>
   <si>
-    <t>Testing "Erlaubte Orte auflisten, …"; NAPeople fehler beheben</t>
+    <t>Testing; NAPeople fehler beheben; Testing</t>
   </si>
 </sst>
 </file>
@@ -348,6 +348,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,30 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,12 +796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -838,35 +838,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -918,12 +918,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -1390,13 +1390,13 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="22">
         <f>SUM(F7:F38)</f>
         <v>1.9305555555555556</v>
@@ -1404,95 +1404,95 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,6 +1515,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="C5:D5"/>
@@ -1524,15 +1533,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32EA2BB-707E-45C2-B5D3-191F8CAB4970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6872CE08-28CF-4C86-99E7-81187CBAEB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -150,7 +152,25 @@
     <t>07.01.2020</t>
   </si>
   <si>
-    <t>Testing; NAPeople fehler beheben; Testing</t>
+    <t>21.01.2020</t>
+  </si>
+  <si>
+    <t>08.01.2020</t>
+  </si>
+  <si>
+    <t>Anzahl fehlgeschlagener Logins zurücksetzen</t>
+  </si>
+  <si>
+    <t>Testing; NAPeople fehler beheben; Testing + Debugging</t>
+  </si>
+  <si>
+    <t>22.01.2020</t>
+  </si>
+  <si>
+    <t>Protokollierung nachholen</t>
+  </si>
+  <si>
+    <t>Refectoring Admin-Settings + 1 Setting hinzufügen; Tabellendesign</t>
   </si>
 </sst>
 </file>
@@ -782,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1139,47 +1159,77 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.22569444444444436</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="26">
+        <f>D19-C19</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="26">
+      <c r="C20" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="26">
         <f t="shared" si="0"/>
         <v>0.22569444444444436</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -1202,7 +1252,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="26">
-        <f t="shared" si="0"/>
+        <f>D23-C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="11"/>
@@ -1399,7 +1449,7 @@
       <c r="E39" s="29"/>
       <c r="F39" s="22">
         <f>SUM(F7:F38)</f>
-        <v>1.9305555555555556</v>
+        <v>2.2951388888888888</v>
       </c>
       <c r="G39" s="8"/>
     </row>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6872CE08-28CF-4C86-99E7-81187CBAEB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354DE26C-012B-42DC-81CA-9B139C2F7731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="825" windowWidth="14685" windowHeight="10095" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Refectoring Admin-Settings + 1 Setting hinzufügen; Tabellendesign</t>
+  </si>
+  <si>
+    <t>23.01.2020</t>
+  </si>
+  <si>
+    <t>Paypal Sandbox erstellen</t>
+  </si>
+  <si>
+    <t>28.01.2020</t>
+  </si>
+  <si>
+    <t>Paypal mit Reiter + PW-Reset Bug beheben + Verifying</t>
   </si>
 </sst>
 </file>
@@ -803,7 +815,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1234,26 +1246,46 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" s="26">
         <f>D23-C23</f>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -1449,7 +1481,7 @@
       <c r="E39" s="29"/>
       <c r="F39" s="22">
         <f>SUM(F7:F38)</f>
-        <v>2.2951388888888888</v>
+        <v>2.770833333333333</v>
       </c>
       <c r="G39" s="8"/>
     </row>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Mair.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi M\Schule\5AHWII\swp\CCC-Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354DE26C-012B-42DC-81CA-9B139C2F7731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E117DAC5-3012-4C40-89C2-AF810A07422C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="825" windowWidth="14685" windowHeight="10095" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -183,6 +183,33 @@
   </si>
   <si>
     <t>Paypal mit Reiter + PW-Reset Bug beheben + Verifying</t>
+  </si>
+  <si>
+    <t>04.02.2020</t>
+  </si>
+  <si>
+    <t>Kalender/Scheduler suchen im Web</t>
+  </si>
+  <si>
+    <t>05.02.2020</t>
+  </si>
+  <si>
+    <t>Daypilot Kalender Download</t>
+  </si>
+  <si>
+    <t>11.02.2020</t>
+  </si>
+  <si>
+    <t>Kalender implementierung mit Standard Kalender</t>
+  </si>
+  <si>
+    <t>12.02.2020</t>
+  </si>
+  <si>
+    <t>25.02.2020</t>
+  </si>
+  <si>
+    <t>Kalender-Implementierung weitermachen</t>
   </si>
 </sst>
 </file>
@@ -380,6 +407,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -403,18 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,12 +855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -870,35 +897,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -950,12 +977,12 @@
         <v>0.22569444444444436</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -1290,62 +1317,112 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="F24" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="F25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="F26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18749999999999994</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -1472,109 +1549,109 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="22">
         <f>SUM(F7:F38)</f>
-        <v>2.770833333333333</v>
+        <v>3.5486111111111107</v>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1597,6 +1674,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A49:F49"/>
@@ -1606,15 +1692,6 @@
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
